--- a/Resultados/integraufms2018.xlsx
+++ b/Resultados/integraufms2018.xlsx
@@ -4354,7 +4354,7 @@
     <t>PET SAÚDE</t>
   </si>
   <si>
-    <t>Ligas Acadêmicas</t>
+    <t>LIGAS</t>
   </si>
   <si>
     <t>PET Agronomia e Engenharia Florestal</t>
